--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -2,21 +2,55 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>спасибо</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
+    <t>сказать</t>
+  </si>
+  <si>
+    <t>Благодарность</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +74,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -130,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,12 +392,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>text</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +497,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>text</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +519,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>text</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>сказать</t>
+  </si>
+  <si>
+    <t>мис   спасибо</t>
   </si>
   <si>
     <t>Благодарность</t>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -425,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -436,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -447,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -458,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -469,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -480,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -491,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -502,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -513,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -524,9 +527,20 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>text</t>
   </si>
@@ -22,9 +27,6 @@
     <t>agenda</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
     <t>спасибо</t>
   </si>
   <si>
@@ -34,17 +36,17 @@
     <t>сказать</t>
   </si>
   <si>
-    <t>мис   спасибо</t>
-  </si>
-  <si>
     <t>Благодарность</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +195,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,136 +423,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>1</v>

--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>text</t>
   </si>
@@ -27,6 +22,9 @@
     <t>agenda</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>спасибо</t>
   </si>
   <si>
@@ -36,17 +34,20 @@
     <t>сказать</t>
   </si>
   <si>
+    <t>сказать спасибо</t>
+  </si>
+  <si>
     <t>Благодарность</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>Не благодарность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,14 +110,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -163,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,10 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,139 +412,150 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_th.xlsx
+++ b/recognized_sets/recognized_th.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>text</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,6 +558,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
